--- a/data/trans_camb/P38C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Clase-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>-0.3075891592801971</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.647636557193944</v>
+        <v>-2.647636557193955</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-1.272989957470472</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.119070855609953</v>
+        <v>-4.998459904983617</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.442269970271711</v>
+        <v>-6.639533787571351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.691364674488767</v>
+        <v>-4.506872115174497</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.261439784711349</v>
+        <v>4.555605158045335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.282822718416606</v>
+        <v>1.121924599095098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.877759239263664</v>
+        <v>2.022084443184137</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>-0.003580619807551392</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02889291730759362</v>
+        <v>-0.02889291730759375</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.01438958721689675</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05778942934851739</v>
+        <v>-0.0568599578549931</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06931882759907201</v>
+        <v>-0.07083148881723764</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05224808207690754</v>
+        <v>-0.05019048544890225</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0512399034121142</v>
+        <v>0.05542214924013501</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01421211920756786</v>
+        <v>0.01297093696020968</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02175376892810379</v>
+        <v>0.02349857730914371</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.089265803015464</v>
+        <v>-6.060328923096661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.353982041458155</v>
+        <v>-4.99311859118463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.323496331765889</v>
+        <v>-4.555347717401928</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.284604468955842</v>
+        <v>4.283744702931182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.813695600501268</v>
+        <v>3.534625104675725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.920581775128829</v>
+        <v>2.428450353174554</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06938269468849501</v>
+        <v>-0.06876611963268392</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05936390869035243</v>
+        <v>-0.055207686387519</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04858739940588338</v>
+        <v>-0.05159936802569318</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05203431697709485</v>
+        <v>0.05173935517835553</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04478476842134089</v>
+        <v>0.04097469370410673</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03379306906322962</v>
+        <v>0.02868518445238848</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-0.711364935086467</v>
+        <v>-0.7113649350864781</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>3.095962944026986</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4519578019133941</v>
+        <v>0.4519578019133719</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.086018341229936</v>
+        <v>-5.659923092166501</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.496109824590472</v>
+        <v>-2.967145321553646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.463434255963129</v>
+        <v>-3.131617464770769</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.098277670963864</v>
+        <v>4.043775986471011</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.632586130516763</v>
+        <v>10.45389959201056</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.527556959254319</v>
+        <v>4.658424865019237</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.008241380300234349</v>
+        <v>-0.008241380300234477</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.03510135992082562</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.005208564300836598</v>
+        <v>0.005208564300836343</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05832448639632333</v>
+        <v>-0.06392726995269833</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03753138598921523</v>
+        <v>-0.0319825573874634</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03880132723820295</v>
+        <v>-0.03526740181714899</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04900602311690291</v>
+        <v>0.04860146562167097</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1154450493658392</v>
+        <v>0.1254212965384327</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05284954053260148</v>
+        <v>0.05528044311915011</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-2.55500241798543</v>
+        <v>-2.555002417985419</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>2.735104531494414</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.243458711065274</v>
+        <v>-5.975743686059948</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2464581916404245</v>
+        <v>-0.2893731965546371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.680348873930138</v>
+        <v>-2.827504483873811</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.090529521239552</v>
+        <v>1.303818457750051</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.186754981736376</v>
+        <v>6.03404583273177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.331619573466217</v>
+        <v>2.418675518266675</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.03050915412620918</v>
+        <v>-0.03050915412620904</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.0318615201360879</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07325116940600951</v>
+        <v>-0.07040358430893644</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.002879625615953404</v>
+        <v>-0.003281557807239694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03139669280648738</v>
+        <v>-0.03297514608705329</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01357979028701482</v>
+        <v>0.01587258814410443</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07407351352057687</v>
+        <v>0.07272931823590238</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02801485878025219</v>
+        <v>0.02920004250557229</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-4.758302477258169</v>
+        <v>-4.75830247725818</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>1.596256249188444</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.6492918425466954</v>
+        <v>-0.6492918425467176</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.750496129484182</v>
+        <v>-10.37080843359813</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.758256717436792</v>
+        <v>-1.742191316502671</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.497801247397263</v>
+        <v>-3.91455322373054</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6067422230707809</v>
+        <v>0.479218731933488</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.726087161241731</v>
+        <v>4.669977956449439</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.349548563251395</v>
+        <v>2.115270378495094</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.05939088564469207</v>
+        <v>-0.05939088564469221</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.01835183656315554</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.007742587971928091</v>
+        <v>-0.007742587971928357</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1187358739424333</v>
+        <v>-0.1262047968028082</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01946650269352725</v>
+        <v>-0.01949488359470011</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0410555858800524</v>
+        <v>-0.04549691225424771</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.007686799104103396</v>
+        <v>0.005906451292938332</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.05556108580972685</v>
+        <v>0.05550118411728216</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0281358029027689</v>
+        <v>0.025663105906357</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>-12.48593557235031</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-7.083613012901413</v>
+        <v>-7.083613012901402</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-8.763895023927947</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-24.69530281362091</v>
+        <v>-22.84387880176191</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.36582013084134</v>
+        <v>-10.90927641662151</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-12.91244620137678</v>
+        <v>-12.81203119380739</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.067238816544801</v>
+        <v>-0.6968897639222446</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-3.456423475526813</v>
+        <v>-3.377439076439969</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.238537145434253</v>
+        <v>-4.689116513940576</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>-0.2298949619000437</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.08124784947459832</v>
+        <v>-0.08124784947459819</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.1089834268409073</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4301041328830347</v>
+        <v>-0.4082736525210068</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1275152478877722</v>
+        <v>-0.1234611464383988</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1591813855965252</v>
+        <v>-0.158355540339959</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.02036332664525189</v>
+        <v>-0.01364828122183004</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.04008365128360725</v>
+        <v>-0.03910086392249214</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.05431240209153979</v>
+        <v>-0.05974695415434179</v>
       </c>
     </row>
     <row r="40">
@@ -1203,10 +1203,10 @@
         <v>-2.21152249120764</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.7419556169819153</v>
+        <v>-0.7419556169819264</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.451150404219503</v>
+        <v>-1.451150404219514</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.559764626324741</v>
+        <v>-4.23859416132889</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.532957930171905</v>
+        <v>-2.482565671956505</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.884269536309416</v>
+        <v>-2.832755553972912</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.290981800099447</v>
+        <v>-0.05684651723706123</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.7138074281145154</v>
+        <v>0.8585666532078459</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.0897605065668366</v>
+        <v>-0.04257652684300495</v>
       </c>
     </row>
     <row r="43">
@@ -1254,10 +1254,10 @@
         <v>-0.02711632608699731</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.008487112046925238</v>
+        <v>-0.008487112046925364</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.01716135883041195</v>
+        <v>-0.01716135883041208</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05523287806427418</v>
+        <v>-0.05121912837301083</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02849070525821029</v>
+        <v>-0.02791539105495861</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.03375680672209281</v>
+        <v>-0.03320977385066098</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.003571765329415187</v>
+        <v>-0.0005505645294015726</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.008341295877712306</v>
+        <v>0.009934030183225882</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.001056801121364081</v>
+        <v>-0.0005153851234008982</v>
       </c>
     </row>
     <row r="46">
